--- a/config_aomi_7.20/game_module_config.xlsx
+++ b/config_aomi_7.20/game_module_config.xlsx
@@ -3597,13 +3597,13 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_022_dlphb</t>
+    <t>act_ty_sjb_style/act_023_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_020_pjq</t>
+    <t>act_ty_by_drop_style/act_021_lxq</t>
   </si>
   <si>
     <t>啤酒券掉落</t>
@@ -3612,7 +3612,7 @@
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_024</t>
+    <t>sys_act_base_style/sys_act_base_weekly_025</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,7 +3750,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_005_cjlb</t>
+    <t>act_ty_gifts_style/act_006_khlb</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -3872,9 +3872,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3952,19 +3952,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3978,9 +3966,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3991,6 +3994,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4016,29 +4020,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4071,7 +4052,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4079,7 +4067,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4098,6 +4093,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4157,19 +4157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4181,67 +4175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4259,7 +4193,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4271,61 +4325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4355,6 +4355,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4369,17 +4384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,8 +4396,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4411,8 +4420,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,15 +4437,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4459,10 +4459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,16 +4471,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4492,116 +4492,116 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5099,11 +5099,11 @@
   <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
+      <selection pane="bottomRight" activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12096,13 +12096,13 @@
         <v>797</v>
       </c>
       <c r="E275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="50">
         <v>44368</v>
@@ -13605,13 +13605,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" s="33" t="s">
         <v>978</v>

--- a/config_aomi_7.20/game_module_config.xlsx
+++ b/config_aomi_7.20/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3858,6 +3858,15 @@
     <t>SYSFishFarmSimplicityManager</t>
   </si>
   <si>
+    <t>act_060_yxcard</t>
+  </si>
+  <si>
+    <t>消消乐游戏卡</t>
+  </si>
+  <si>
+    <t>Act_060_YXCardManager</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3871,12 +3880,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3952,6 +3961,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3966,14 +4004,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3988,41 +4057,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4052,13 +4089,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4067,7 +4097,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4075,14 +4105,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4157,6 +4179,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4169,7 +4227,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4187,97 +4293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4295,31 +4311,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4354,6 +4376,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4365,6 +4417,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4395,54 +4465,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4459,10 +4481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,139 +4493,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4771,6 +4793,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5096,14 +5128,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F339" sqref="F339"/>
+      <selection pane="bottomRight" activeCell="K347" sqref="K347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13705,7 +13737,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="56">
+      <c r="I338" s="60">
         <v>44354</v>
       </c>
     </row>
@@ -13912,6 +13944,32 @@
       </c>
       <c r="I346" t="s">
         <v>999</v>
+      </c>
+    </row>
+    <row r="347" customFormat="1" spans="1:9">
+      <c r="A347" s="56">
+        <v>346</v>
+      </c>
+      <c r="B347" s="57" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C347" s="58" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D347" s="59" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E347" s="5">
+        <v>1</v>
+      </c>
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+      <c r="G347" s="5">
+        <v>1</v>
+      </c>
+      <c r="I347" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -13941,7 +13999,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_7.20/game_module_config.xlsx
+++ b/config_aomi_7.20/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$347</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3612,7 +3612,7 @@
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_013_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3880,12 +3880,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3961,21 +3961,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,28 +3990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4026,7 +4005,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4040,9 +4025,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4053,13 +4037,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4087,7 +4064,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4108,18 +4107,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4179,7 +4166,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4197,19 +4214,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,133 +4328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4376,17 +4363,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,39 +4389,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4465,6 +4419,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4481,10 +4468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4493,139 +4480,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4794,16 +4781,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5131,11 +5109,11 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D294" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K347" sqref="K347"/>
+      <selection pane="bottomRight" activeCell="H311" sqref="H311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13737,7 +13715,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="60">
+      <c r="I338" s="57">
         <v>44354</v>
       </c>
     </row>
@@ -13947,16 +13925,16 @@
       </c>
     </row>
     <row r="347" customFormat="1" spans="1:9">
-      <c r="A347" s="56">
+      <c r="A347" s="14">
         <v>346</v>
       </c>
-      <c r="B347" s="57" t="s">
+      <c r="B347" s="33" t="s">
         <v>1015</v>
       </c>
-      <c r="C347" s="58" t="s">
+      <c r="C347" s="56" t="s">
         <v>1016</v>
       </c>
-      <c r="D347" s="59" t="s">
+      <c r="D347" s="29" t="s">
         <v>1017</v>
       </c>
       <c r="E347" s="5">
@@ -13973,7 +13951,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H346">
+  <autoFilter ref="A1:H347">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_aomi_7.20/game_module_config.xlsx
+++ b/config_aomi_7.20/game_module_config.xlsx
@@ -3750,7 +3750,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_006_khlb</t>
+    <t>act_ty_gifts_style/act_005_khlb</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -3880,9 +3880,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -3961,7 +3961,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3969,13 +3969,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,8 +3982,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4005,8 +4064,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4019,59 +4080,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4087,23 +4101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4166,13 +4166,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4184,121 +4232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4316,13 +4250,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4364,21 +4364,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4389,6 +4374,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4408,11 +4402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4422,6 +4422,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4437,15 +4446,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4468,10 +4468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4480,10 +4480,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4492,125 +4492,125 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5109,11 +5109,11 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H311" sqref="H311"/>
+      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13210,13 +13210,13 @@
         <v>931</v>
       </c>
       <c r="E318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="41" t="s">
         <v>932</v>
@@ -13233,13 +13233,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" s="41" t="s">
         <v>935</v>
